--- a/SchandomInput.xlsx
+++ b/SchandomInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twanb\Documents\NK-Schandom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FC0E1E-B9FE-4D7A-9637-41C6861F88D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F06672-DCA7-409F-86A0-2F325A3D00CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -1123,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3D358C-A238-4518-9516-78D5730C6DCB}">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -3061,8 +3061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D798F37-0E69-419A-83C6-08D737C39BA3}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
